--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H2">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N2">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q2">
-        <v>2.864723006842667</v>
+        <v>5.542020894876888</v>
       </c>
       <c r="R2">
-        <v>25.782507061584</v>
+        <v>49.878188053892</v>
       </c>
       <c r="S2">
-        <v>0.07234265998606422</v>
+        <v>0.1189985221839567</v>
       </c>
       <c r="T2">
-        <v>0.07234265998606425</v>
+        <v>0.1189985221839567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H3">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I3">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J3">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P3">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q3">
-        <v>3.666524843557333</v>
+        <v>7.352170172680665</v>
       </c>
       <c r="R3">
-        <v>32.99872359201599</v>
+        <v>66.16953155412598</v>
       </c>
       <c r="S3">
-        <v>0.09259050856028993</v>
+        <v>0.1578661289788226</v>
       </c>
       <c r="T3">
-        <v>0.09259050856028996</v>
+        <v>0.1578661289788226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H4">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I4">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J4">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N4">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q4">
-        <v>2.201658857504</v>
+        <v>4.412711000908222</v>
       </c>
       <c r="R4">
-        <v>19.814929717536</v>
+        <v>39.714399008174</v>
       </c>
       <c r="S4">
-        <v>0.05559834502438021</v>
+        <v>0.09474992929355086</v>
       </c>
       <c r="T4">
-        <v>0.05559834502438023</v>
+        <v>0.09474992929355089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H5">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I5">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J5">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N5">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O5">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P5">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q5">
-        <v>3.071274941768889</v>
+        <v>4.618486169026887</v>
       </c>
       <c r="R5">
-        <v>27.64147447592</v>
+        <v>41.56637552124199</v>
       </c>
       <c r="S5">
-        <v>0.07755870229177395</v>
+        <v>0.09916834296840953</v>
       </c>
       <c r="T5">
-        <v>0.07755870229177397</v>
+        <v>0.09916834296840954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.078262</v>
       </c>
       <c r="I6">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J6">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N6">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q6">
-        <v>3.704424612555334</v>
+        <v>3.573924431298222</v>
       </c>
       <c r="R6">
-        <v>33.33982151299801</v>
+        <v>32.165319881684</v>
       </c>
       <c r="S6">
-        <v>0.09354758891173186</v>
+        <v>0.07673946630456971</v>
       </c>
       <c r="T6">
-        <v>0.09354758891173189</v>
+        <v>0.07673946630456972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.078262</v>
       </c>
       <c r="I7">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J7">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.862121</v>
       </c>
       <c r="O7">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P7">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q7">
         <v>4.741248923744666</v>
@@ -883,10 +883,10 @@
         <v>42.67124031370199</v>
       </c>
       <c r="S7">
-        <v>0.1197304444375522</v>
+        <v>0.1018043103650954</v>
       </c>
       <c r="T7">
-        <v>0.1197304444375522</v>
+        <v>0.1018043103650954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.078262</v>
       </c>
       <c r="I8">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J8">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N8">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q8">
-        <v>2.847004488988</v>
+        <v>2.845657920377556</v>
       </c>
       <c r="R8">
-        <v>25.623040400892</v>
+        <v>25.610921283398</v>
       </c>
       <c r="S8">
-        <v>0.07189521543049797</v>
+        <v>0.06110209499192495</v>
       </c>
       <c r="T8">
-        <v>0.07189521543049798</v>
+        <v>0.06110209499192496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.078262</v>
       </c>
       <c r="I9">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J9">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N9">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O9">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P9">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q9">
-        <v>3.971520617887778</v>
+        <v>2.978357690848222</v>
       </c>
       <c r="R9">
-        <v>35.74368556099</v>
+        <v>26.805219217634</v>
       </c>
       <c r="S9">
-        <v>0.100292546609648</v>
+        <v>0.06395143043827035</v>
       </c>
       <c r="T9">
-        <v>0.1002925466096481</v>
+        <v>0.06395143043827035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H10">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I10">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J10">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N10">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q10">
-        <v>2.36781397398</v>
+        <v>2.545048047708667</v>
       </c>
       <c r="R10">
-        <v>21.31032576582</v>
+        <v>22.905432429378</v>
       </c>
       <c r="S10">
-        <v>0.05979424915453765</v>
+        <v>0.05464738627103699</v>
       </c>
       <c r="T10">
-        <v>0.05979424915453766</v>
+        <v>0.054647386271037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H11">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I11">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J11">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.862121</v>
       </c>
       <c r="O11">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P11">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q11">
-        <v>3.03053689302</v>
+        <v>3.376318259951</v>
       </c>
       <c r="R11">
-        <v>27.27483203717999</v>
+        <v>30.386864339559</v>
       </c>
       <c r="S11">
-        <v>0.07652994705013377</v>
+        <v>0.07249645769619607</v>
       </c>
       <c r="T11">
-        <v>0.0765299470501338</v>
+        <v>0.07249645769619609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H12">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I12">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J12">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N12">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q12">
-        <v>1.81976358492</v>
+        <v>2.026437960265667</v>
       </c>
       <c r="R12">
-        <v>16.37787226428</v>
+        <v>18.237941642391</v>
       </c>
       <c r="S12">
-        <v>0.04595436904874867</v>
+        <v>0.04351176712307265</v>
       </c>
       <c r="T12">
-        <v>0.04595436904874868</v>
+        <v>0.04351176712307266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H13">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I13">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J13">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N13">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O13">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P13">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q13">
-        <v>2.5385378299</v>
+        <v>2.120935563183667</v>
       </c>
       <c r="R13">
-        <v>22.8468404691</v>
+        <v>19.088420068653</v>
       </c>
       <c r="S13">
-        <v>0.06410552735868852</v>
+        <v>0.04554082390767688</v>
       </c>
       <c r="T13">
-        <v>0.06410552735868853</v>
+        <v>0.04554082390767688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H14">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I14">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J14">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N14">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O14">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P14">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q14">
-        <v>0.6732934716993334</v>
+        <v>0.1109308381524445</v>
       </c>
       <c r="R14">
-        <v>6.059641245294</v>
+        <v>0.9983775433720001</v>
       </c>
       <c r="S14">
-        <v>0.0170026353604304</v>
+        <v>0.002381911951463657</v>
       </c>
       <c r="T14">
-        <v>0.01700263536043041</v>
+        <v>0.002381911951463657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H15">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I15">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J15">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.862121</v>
       </c>
       <c r="O15">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P15">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q15">
-        <v>0.8617402922006665</v>
+        <v>0.1471633570073333</v>
       </c>
       <c r="R15">
-        <v>7.755662629805999</v>
+        <v>1.324470213066</v>
       </c>
       <c r="S15">
-        <v>0.02176147041304096</v>
+        <v>0.00315989822768283</v>
       </c>
       <c r="T15">
-        <v>0.02176147041304097</v>
+        <v>0.00315989822768283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H16">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I16">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J16">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N16">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O16">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P16">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q16">
-        <v>0.5174540547640001</v>
+        <v>0.08832621513711111</v>
       </c>
       <c r="R16">
-        <v>4.657086492876</v>
+        <v>0.7949359362340001</v>
       </c>
       <c r="S16">
-        <v>0.01306723290621383</v>
+        <v>0.001896544468306616</v>
       </c>
       <c r="T16">
-        <v>0.01306723290621383</v>
+        <v>0.001896544468306617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H17">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I17">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J17">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N17">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O17">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P17">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q17">
-        <v>0.7218392016077777</v>
+        <v>0.09244507580244445</v>
       </c>
       <c r="R17">
-        <v>6.496552814469998</v>
+        <v>0.8320056822219999</v>
       </c>
       <c r="S17">
-        <v>0.0182285574562677</v>
+        <v>0.001984984829964109</v>
       </c>
       <c r="T17">
-        <v>0.01822855745626771</v>
+        <v>0.001984984829964109</v>
       </c>
     </row>
   </sheetData>
